--- a/BalanceSheet/CMG_bal.xlsx
+++ b/BalanceSheet/CMG_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2148000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-1008000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-1415000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-705000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2734000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>26096000.0</v>
@@ -1940,19 +1940,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>19446000.0</v>
+        <v>147000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-9635000.0</v>
+        <v>122000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-34754000.0</v>
+        <v>157000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>20285000.0</v>
+        <v>161000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>20245000.0</v>
+        <v>130000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>115816000.0</v>
@@ -3385,19 +3385,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-13482000.0</v>
+        <v>136000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>54493000.0</v>
+        <v>149000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-1265000.0</v>
+        <v>95000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>27779000.0</v>
+        <v>97000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>27343000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>37814000.0</v>
